--- a/biology/Botanique/Orbea_(plante)/Orbea_(plante).xlsx
+++ b/biology/Botanique/Orbea_(plante)/Orbea_(plante).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Orbea est un genre de plantes à fleurs de la famille des Apocynaceae, décrit comme un genre en 1812[2]. Il est originaire d'Afrique[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Orbea est un genre de plantes à fleurs de la famille des Apocynaceae, décrit comme un genre en 1812. Il est originaire d'Afrique,.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes avec une tige succulente. Les fleurs, qui se produisent sur la base des tiges, ont cinq lobes d'une couleur jaune pâle avec des taches marron-pourpre, formant une étoile. Il peut y avoir des variations de couleur entre les différentes espèces.  
 C'est une formation massive de tiges succulentes, de 5-15 cm de hauteur, profusément ramifiés, avec un latex incolore (une couleur jaunâtre dans O. lutea (N.E.Br.) Bruyns) ; des rhizomes absents ou présents dans O. miscella (N.E.Br.) Meve, O. rangeana (Dinter et Berger) L.C.Leach, O. subterranea (E.A.Bruce et P.R.O.Bally) Bruyns ; des racines fibreuses. Des tiges succulentes de couleur verte ou verte-bleutée, souvent maculée d'une couleur vert foncé ou pourpre, cylindrique, conique ou en forme de massue (O. prognatha (P.R.O.Bally) L.C.Leach), de 1-25 cm de longueur, 10-30 mm de largeur, quadrangulaire, avec des angles arrondis, glabres. Des feuilles caduques, réduites a des écailles, sessile. La plante a  une propagation horizontale.
@@ -546,7 +560,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Selon The Plant List[5]
+          <t>Selon The Plant List[5]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Orbea abayensis (M.G. Gilbert) Bruyns -  Ethiopia
 Orbea ciliata (Thunb.) L.C. Leach - South Africa
 Orbea cooperi (N.E.Br.) L.C.Leach - South Africa
@@ -578,7 +598,43 @@
 Orbea verrucosa (Masson) L.C. Leach - South Africa
 Orbea wendlandiana (Schult.) G. Don - South Africa
 Orbea woodii (N.E. Br.) L.C. Leach - KwaZulu-Natal
-Précédemment incluses
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Orbea_(plante)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orbea_(plante)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Précédemment incluses</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ces plantes étaient auparavant classées parmi les Orbea et ont été déplacées vers d'autres genres (Stisseria)
 O. anguinea maintenant Stisseria anguina
 O. bisulca maintenant     Stisseria bisulca
